--- a/QCC.xlsx
+++ b/QCC.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro.capela\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C469DB2-6C26-43A2-A7C2-40F8BCBD7D73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8530FADC-5211-42EA-8A52-1BA8A15F1B95}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BFB389BB-361B-4379-A222-E7C73B7BC274}"/>
   </bookViews>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94AB08D2-5FD5-4A29-A4EA-1DE4933AD439}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,7 +815,7 @@
         <v>17</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>67</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>35</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>25</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>23</v>
       </c>
       <c r="G7">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -953,7 +953,7 @@
         <v>23</v>
       </c>
       <c r="G8">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -976,7 +976,7 @@
         <v>54</v>
       </c>
       <c r="G9">
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>37</v>
       </c>
       <c r="G10">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>52</v>
       </c>
       <c r="G11">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>33</v>
       </c>
       <c r="G12">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1068,7 +1068,7 @@
         <v>48</v>
       </c>
       <c r="G13">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1091,7 +1091,7 @@
         <v>29</v>
       </c>
       <c r="G14">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,7 +1114,7 @@
         <v>25</v>
       </c>
       <c r="G15">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,7 +1137,7 @@
         <v>23</v>
       </c>
       <c r="G16">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,7 +1160,7 @@
         <v>37</v>
       </c>
       <c r="G17">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1183,7 +1183,7 @@
         <v>29</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
         <v>78</v>
       </c>
       <c r="G19">
-        <v>78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,7 +1229,7 @@
         <v>43</v>
       </c>
       <c r="G20">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,7 +1252,7 @@
         <v>48</v>
       </c>
       <c r="G21">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1275,7 +1275,7 @@
         <v>38</v>
       </c>
       <c r="G22">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1298,7 +1298,7 @@
         <v>55</v>
       </c>
       <c r="G23">
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,7 +1321,7 @@
         <v>40</v>
       </c>
       <c r="G24">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>23</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>56</v>
       </c>
       <c r="G26">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1390,7 +1390,7 @@
         <v>34</v>
       </c>
       <c r="G27">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
         <v>65</v>
       </c>
       <c r="G28">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>33</v>
       </c>
       <c r="G29">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1459,7 +1459,7 @@
         <v>36</v>
       </c>
       <c r="G30">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>23</v>
       </c>
       <c r="G31">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>30</v>
       </c>
       <c r="G32">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1528,7 +1528,7 @@
         <v>71</v>
       </c>
       <c r="G33">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1551,7 +1551,7 @@
         <v>70</v>
       </c>
       <c r="G34">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>50</v>
       </c>
       <c r="G35">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1597,7 +1597,7 @@
         <v>53</v>
       </c>
       <c r="G36">
-        <v>53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1620,7 +1620,7 @@
         <v>34</v>
       </c>
       <c r="G37">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1643,7 +1643,7 @@
         <v>46</v>
       </c>
       <c r="G38">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1666,7 +1666,7 @@
         <v>88</v>
       </c>
       <c r="G39">
-        <v>88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1689,7 +1689,7 @@
         <v>36</v>
       </c>
       <c r="G40">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="G41">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1735,7 +1735,7 @@
         <v>24</v>
       </c>
       <c r="G42">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>32</v>
       </c>
       <c r="G43">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>38</v>
       </c>
       <c r="G44">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1804,7 +1804,7 @@
         <v>36</v>
       </c>
       <c r="G45">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>34</v>
       </c>
       <c r="G46">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>30</v>
       </c>
       <c r="G47">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
         <v>22</v>
       </c>
       <c r="G48">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
         <v>19</v>
       </c>
       <c r="G49">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>19</v>
       </c>
       <c r="G50">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1942,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="G51">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1965,7 +1965,7 @@
         <v>20</v>
       </c>
       <c r="G52">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1988,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="G53">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2011,7 +2011,7 @@
         <v>21</v>
       </c>
       <c r="G54">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2034,7 +2034,7 @@
         <v>21</v>
       </c>
       <c r="G55">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2057,7 +2057,7 @@
         <v>38</v>
       </c>
       <c r="G56">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2080,7 +2080,7 @@
         <v>27</v>
       </c>
       <c r="G57">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2103,7 +2103,7 @@
         <v>19</v>
       </c>
       <c r="G58">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="G59">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2149,7 +2149,7 @@
         <v>34</v>
       </c>
       <c r="G60">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2172,7 +2172,7 @@
         <v>57</v>
       </c>
       <c r="G61">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2195,7 +2195,7 @@
         <v>19</v>
       </c>
       <c r="G62">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2218,7 +2218,7 @@
         <v>19</v>
       </c>
       <c r="G63">
-        <v>19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2241,7 +2241,7 @@
         <v>25</v>
       </c>
       <c r="G64">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2264,7 +2264,7 @@
         <v>44</v>
       </c>
       <c r="G65">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2287,7 +2287,7 @@
         <v>30</v>
       </c>
       <c r="G66">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2310,7 +2310,7 @@
         <v>16</v>
       </c>
       <c r="G67">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2333,7 +2333,7 @@
         <v>14</v>
       </c>
       <c r="G68">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2356,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="G69">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2436,14 +2436,14 @@
       </c>
       <c r="G2" s="2">
         <f>IF(I2&gt;0,I2,H2)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2" s="2">
         <f>IFERROR(VLOOKUP($E2,QSBA!$E:$G,3,),)</f>
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2467,14 +2467,14 @@
       </c>
       <c r="G3" s="2">
         <f t="shared" ref="G3:G33" si="0">IF(I3&gt;0,I3,H3)</f>
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="2">
         <f>IFERROR(VLOOKUP($E3,QSBA!$E:$G,3,),)</f>
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2498,14 +2498,14 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>IFERROR(VLOOKUP($E4,QSBA!$E:$G,3,),)</f>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,14 +2529,14 @@
       </c>
       <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5" s="2">
         <f>IFERROR(VLOOKUP($E5,QSBA!$E:$G,3,),)</f>
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2560,14 +2560,14 @@
       </c>
       <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" s="2">
         <f>IFERROR(VLOOKUP($E6,QSBA!$E:$G,3,),)</f>
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2591,14 +2591,14 @@
       </c>
       <c r="G7" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7" s="2">
         <f>IFERROR(VLOOKUP($E7,QSBA!$E:$G,3,),)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2622,14 +2622,14 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8" s="2">
         <f>IFERROR(VLOOKUP($E8,QSBA!$E:$G,3,),)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2653,14 +2653,14 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9" s="2">
         <f>IFERROR(VLOOKUP($E9,QSBA!$E:$G,3,),)</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2715,14 +2715,14 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11" s="2">
         <f>IFERROR(VLOOKUP($E11,QSBA!$E:$G,3,),)</f>
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2839,14 +2839,14 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15" s="2">
         <f>IFERROR(VLOOKUP($E15,QSBA!$E:$G,3,),)</f>
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2963,14 +2963,14 @@
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19" s="2">
         <f>IFERROR(VLOOKUP($E19,QSBA!$E:$G,3,),)</f>
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
